--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/VEDAVAAG Systems Ltd/Pruned_Excel/Semi_Final/VEDAVAAG Systems Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/VEDAVAAG Systems Ltd/Pruned_Excel/Semi_Final/VEDAVAAG Systems Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="110">
   <si>
     <t>Balance Sheet of VEDAVAAG Systems(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,61 +62,64 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of VEDAVAAG Systems(in Rs. Cr.)</t>
@@ -212,9 +218,6 @@
     <t>Quarterly Results of VEDAVAAG Systems(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -272,49 +275,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -741,13 +705,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,783 +751,843 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
         <v>8.85</v>
-      </c>
-      <c r="C2">
-        <v>6.23</v>
       </c>
       <c r="D2">
         <v>6.23</v>
       </c>
       <c r="E2">
+        <v>6.23</v>
+      </c>
+      <c r="F2">
         <v>15.08</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.91</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20.26</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10.13</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>13.58</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>14.69</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5.58</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>20.26</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
         <v>8.85</v>
-      </c>
-      <c r="C3">
-        <v>7.22</v>
       </c>
       <c r="D3">
         <v>7.22</v>
       </c>
       <c r="E3">
+        <v>7.22</v>
+      </c>
+      <c r="F3">
         <v>16.07</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.42</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.09</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>24.15</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>10.45</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>15.5</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>16.33</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>7.82</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>24.15</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
         <v>10.35</v>
-      </c>
-      <c r="C4">
-        <v>11.53</v>
       </c>
       <c r="D4">
         <v>11.53</v>
       </c>
       <c r="E4">
+        <v>11.53</v>
+      </c>
+      <c r="F4">
         <v>21.88</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.65</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4.88</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>35.73</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>17.05</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>20.76</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>21.32</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>14.41</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>35.73</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
         <v>10.35</v>
-      </c>
-      <c r="C5">
-        <v>11.67</v>
       </c>
       <c r="D5">
         <v>11.67</v>
       </c>
       <c r="E5">
+        <v>11.67</v>
+      </c>
+      <c r="F5">
         <v>22.02</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.52</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.42</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>43.12</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>24.99</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>30.86</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>30.89</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>12.23</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>43.12</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
         <v>9.35</v>
-      </c>
-      <c r="C6">
-        <v>11.73</v>
       </c>
       <c r="D6">
         <v>11.73</v>
       </c>
       <c r="E6">
+        <v>11.73</v>
+      </c>
+      <c r="F6">
         <v>21.08</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.28</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.56</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>43.04</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>19.36</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>30.12</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>30.13</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>12.91</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>43.04</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
         <v>9.35</v>
-      </c>
-      <c r="C7">
-        <v>11.94</v>
       </c>
       <c r="D7">
         <v>11.94</v>
       </c>
       <c r="E7">
+        <v>11.94</v>
+      </c>
+      <c r="F7">
         <v>21.29</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.53</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>9.83</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>41.37</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>21.38</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>26.59</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>26.61</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>14.76</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>41.37</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
         <v>9.35</v>
-      </c>
-      <c r="C8">
-        <v>12.8</v>
       </c>
       <c r="D8">
         <v>12.8</v>
       </c>
       <c r="E8">
+        <v>12.8</v>
+      </c>
+      <c r="F8">
         <v>22.15</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.52</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9.789999999999999</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>42.58</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9.94</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>15.15</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>15.17</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>27.42</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>42.58</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
         <v>9.35</v>
-      </c>
-      <c r="C9">
-        <v>16.47</v>
       </c>
       <c r="D9">
         <v>16.47</v>
       </c>
       <c r="E9">
+        <v>16.47</v>
+      </c>
+      <c r="F9">
         <v>25.82</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>10.42</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>25.76</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>61.27</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>13.35</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>14.7</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>14.72</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>46.56</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>61.27</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
         <v>9.35</v>
-      </c>
-      <c r="C10">
-        <v>18.92</v>
       </c>
       <c r="D10">
         <v>18.92</v>
       </c>
       <c r="E10">
+        <v>18.92</v>
+      </c>
+      <c r="F10">
         <v>28.27</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>53.72</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>92.01000000000001</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>17.45</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>31.3</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>31.32</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>60.69</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>92.01000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
         <v>13.63</v>
-      </c>
-      <c r="C11">
-        <v>19.15</v>
       </c>
       <c r="D11">
         <v>19.15</v>
       </c>
       <c r="E11">
+        <v>19.15</v>
+      </c>
+      <c r="F11">
         <v>32.78</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6.68</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>60.75</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>98.20999999999999</v>
-      </c>
-      <c r="I11">
-        <v>20.18</v>
       </c>
       <c r="J11">
         <v>20.18</v>
       </c>
       <c r="K11">
+        <v>20.18</v>
+      </c>
+      <c r="L11">
         <v>20.2</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>78.01000000000001</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>98.20999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
         <v>14.13</v>
-      </c>
-      <c r="C12">
-        <v>24.53</v>
       </c>
       <c r="D12">
         <v>24.53</v>
       </c>
       <c r="E12">
+        <v>24.53</v>
+      </c>
+      <c r="F12">
         <v>38.66</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>7.47</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>34.81</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>77.27</v>
-      </c>
-      <c r="I12">
-        <v>13.14</v>
       </c>
       <c r="J12">
         <v>13.14</v>
       </c>
       <c r="K12">
+        <v>13.14</v>
+      </c>
+      <c r="L12">
         <v>13.16</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>64.11</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>77.27</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
         <v>14.25</v>
-      </c>
-      <c r="C13">
-        <v>43.33</v>
       </c>
       <c r="D13">
         <v>43.33</v>
       </c>
       <c r="E13">
+        <v>43.33</v>
+      </c>
+      <c r="F13">
         <v>57.58</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7.29</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>30.45</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>90.98999999999999</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>14.96</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>15.72</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>19.34</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>71.65000000000001</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>90.98999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
         <v>15.94</v>
-      </c>
-      <c r="C14">
-        <v>56.97</v>
       </c>
       <c r="D14">
         <v>56.97</v>
       </c>
       <c r="E14">
+        <v>56.97</v>
+      </c>
+      <c r="F14">
         <v>72.91</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>8.1</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>29.48</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>108.26</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>20.58</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>23.31</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>30.91</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>77.34999999999999</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>108.26</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
         <v>22.93</v>
-      </c>
-      <c r="C15">
-        <v>76.83</v>
       </c>
       <c r="D15">
         <v>76.83</v>
       </c>
       <c r="E15">
+        <v>76.83</v>
+      </c>
+      <c r="F15">
         <v>99.76000000000001</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3.55</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>11.56</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>117.51</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>18.42</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>23.78</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>30.82</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>86.69</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>117.51</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
         <v>22.93</v>
-      </c>
-      <c r="C16">
-        <v>79.91</v>
       </c>
       <c r="D16">
         <v>79.91</v>
       </c>
       <c r="E16">
+        <v>79.91</v>
+      </c>
+      <c r="F16">
         <v>102.84</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4.41</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>10.31</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>118.5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>16.66</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>24.62</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>54.08</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>64.42</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>118.5</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
         <v>22.93</v>
-      </c>
-      <c r="C17">
-        <v>84.14</v>
       </c>
       <c r="D17">
         <v>84.14</v>
       </c>
       <c r="E17">
+        <v>84.14</v>
+      </c>
+      <c r="F17">
         <v>107.07</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3.68</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>8.93</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>120.02</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>15.33</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>23.23</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>48.48</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>71.54000000000001</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>120.02</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
         <v>22.93</v>
-      </c>
-      <c r="C18">
-        <v>89.16</v>
       </c>
       <c r="D18">
         <v>89.16</v>
       </c>
       <c r="E18">
+        <v>89.16</v>
+      </c>
+      <c r="F18">
         <v>112.09</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3.47</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>9.890000000000001</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>126.27</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>14</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>21.75</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>47.15</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>79.12</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>126.27</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
         <v>22.93</v>
-      </c>
-      <c r="C19">
-        <v>94.48</v>
       </c>
       <c r="D19">
         <v>94.48</v>
       </c>
       <c r="E19">
+        <v>94.48</v>
+      </c>
+      <c r="F19">
         <v>117.4</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7.38</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>12.4</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>135.2</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>12.77</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>19.6</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>44.46</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>90.73</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>135.2</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
         <v>22.93</v>
-      </c>
-      <c r="C20">
-        <v>98.93000000000001</v>
       </c>
       <c r="D20">
         <v>98.93000000000001</v>
       </c>
       <c r="E20">
+        <v>98.93000000000001</v>
+      </c>
+      <c r="F20">
         <v>121.86</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>12.41</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>14.17</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>145.91</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>11.64</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>17.85</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>54.08</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>91.84</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>145.91</v>
       </c>
     </row>
@@ -1574,589 +1598,649 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>1.46</v>
+      </c>
+      <c r="D2">
+        <v>1.45</v>
+      </c>
+      <c r="E2">
+        <v>-5.69</v>
+      </c>
+      <c r="F2">
+        <v>4.29</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.06</v>
+      </c>
+      <c r="I2">
+        <v>0.09</v>
+      </c>
+      <c r="J2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>2.16</v>
+      </c>
+      <c r="D3">
+        <v>1.7</v>
+      </c>
+      <c r="E3">
+        <v>-4.03</v>
+      </c>
+      <c r="F3">
+        <v>2.37</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.04</v>
+      </c>
+      <c r="I3">
+        <v>0.15</v>
+      </c>
+      <c r="J3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>2.62</v>
+      </c>
+      <c r="D4">
+        <v>2.75</v>
+      </c>
+      <c r="E4">
+        <v>-8.529999999999999</v>
+      </c>
+      <c r="F4">
+        <v>6.07</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.3</v>
+      </c>
+      <c r="I4">
+        <v>0.19</v>
+      </c>
+      <c r="J4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>1.59</v>
+      </c>
+      <c r="D5">
+        <v>6.41</v>
+      </c>
+      <c r="E5">
+        <v>-14.77</v>
+      </c>
+      <c r="F5">
+        <v>8.09</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-0.27</v>
+      </c>
+      <c r="I5">
+        <v>0.49</v>
+      </c>
+      <c r="J5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>0.9</v>
+      </c>
+      <c r="D6">
+        <v>6.04</v>
+      </c>
+      <c r="E6">
+        <v>-6.13</v>
+      </c>
+      <c r="F6">
+        <v>-0.08</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-0.18</v>
+      </c>
+      <c r="I6">
+        <v>0.21</v>
+      </c>
+      <c r="J6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>0.31</v>
+      </c>
+      <c r="D7">
+        <v>4.44</v>
+      </c>
+      <c r="E7">
+        <v>-3.05</v>
+      </c>
+      <c r="F7">
+        <v>-1.39</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.01</v>
+      </c>
+      <c r="I7">
+        <v>0.03</v>
+      </c>
+      <c r="J7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>1.28</v>
+      </c>
+      <c r="D8">
+        <v>7.5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-6.96</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.55</v>
+      </c>
+      <c r="I8">
+        <v>0.04</v>
+      </c>
+      <c r="J8">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>3.76</v>
+      </c>
+      <c r="D9">
+        <v>6.74</v>
+      </c>
+      <c r="E9">
+        <v>-5.69</v>
+      </c>
+      <c r="F9">
+        <v>0.49</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.54</v>
+      </c>
+      <c r="I9">
+        <v>0.59</v>
+      </c>
+      <c r="J9">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>3.78</v>
+      </c>
+      <c r="D10">
+        <v>26.4</v>
+      </c>
+      <c r="E10">
+        <v>-22.73</v>
+      </c>
+      <c r="F10">
+        <v>2.43</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>6.11</v>
+      </c>
+      <c r="I10">
+        <v>2.13</v>
+      </c>
+      <c r="J10">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>4.04</v>
+      </c>
+      <c r="D11">
+        <v>-5.85</v>
+      </c>
+      <c r="E11">
+        <v>0.67</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-5.18</v>
+      </c>
+      <c r="I11">
+        <v>8.24</v>
+      </c>
+      <c r="J11">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>6.31</v>
+      </c>
+      <c r="D12">
+        <v>0.71</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>0.4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2.61</v>
+      </c>
+      <c r="I12">
+        <v>3.06</v>
+      </c>
+      <c r="J12">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>12.38</v>
+      </c>
+      <c r="D13">
+        <v>0.52</v>
+      </c>
+      <c r="E13">
+        <v>-8.01</v>
+      </c>
+      <c r="F13">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2.4</v>
+      </c>
+      <c r="I13">
+        <v>5.67</v>
+      </c>
+      <c r="J13">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>14.84</v>
+      </c>
+      <c r="D14">
+        <v>-2.76</v>
+      </c>
+      <c r="E14">
+        <v>-14.28</v>
+      </c>
+      <c r="F14">
+        <v>11.23</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>-5.81</v>
+      </c>
+      <c r="I14">
+        <v>8.07</v>
+      </c>
+      <c r="J14">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>11.38</v>
+      </c>
+      <c r="D15">
+        <v>-15.52</v>
+      </c>
+      <c r="E15">
+        <v>-3.96</v>
+      </c>
+      <c r="F15">
+        <v>20.4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.92</v>
+      </c>
+      <c r="I15">
+        <v>2.26</v>
+      </c>
+      <c r="J15">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>7.14</v>
+      </c>
+      <c r="D16">
+        <v>0.85</v>
+      </c>
+      <c r="E16">
+        <v>-3.4</v>
+      </c>
+      <c r="F16">
+        <v>2.49</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>-0.05</v>
+      </c>
+      <c r="I16">
+        <v>2.41</v>
+      </c>
+      <c r="J16">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>7.96</v>
+      </c>
+      <c r="D17">
+        <v>3.92</v>
+      </c>
+      <c r="E17">
+        <v>-0.89</v>
+      </c>
+      <c r="F17">
+        <v>-2.56</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.47</v>
+      </c>
+      <c r="I17">
+        <v>2.36</v>
+      </c>
+      <c r="J17">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>9.58</v>
+      </c>
+      <c r="D18">
+        <v>2.58</v>
+      </c>
+      <c r="E18">
+        <v>-0.55</v>
+      </c>
+      <c r="F18">
+        <v>-1.94</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.09</v>
+      </c>
+      <c r="I18">
+        <v>2.83</v>
+      </c>
+      <c r="J18">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>9.25</v>
+      </c>
+      <c r="D19">
+        <v>2.05</v>
+      </c>
+      <c r="E19">
+        <v>0.42</v>
+      </c>
+      <c r="F19">
+        <v>-2.43</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.03</v>
+      </c>
+      <c r="I19">
+        <v>2.92</v>
+      </c>
+      <c r="J19">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>1.46</v>
-      </c>
-      <c r="C2">
-        <v>1.45</v>
-      </c>
-      <c r="D2">
-        <v>-5.69</v>
-      </c>
-      <c r="E2">
-        <v>4.29</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.06</v>
-      </c>
-      <c r="H2">
-        <v>0.09</v>
-      </c>
-      <c r="I2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>2.16</v>
-      </c>
-      <c r="C3">
-        <v>1.7</v>
-      </c>
-      <c r="D3">
-        <v>-4.03</v>
-      </c>
-      <c r="E3">
-        <v>2.37</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.04</v>
-      </c>
-      <c r="H3">
-        <v>0.15</v>
-      </c>
-      <c r="I3">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>2.62</v>
-      </c>
-      <c r="C4">
-        <v>2.75</v>
-      </c>
-      <c r="D4">
-        <v>-8.529999999999999</v>
-      </c>
-      <c r="E4">
-        <v>6.07</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.3</v>
-      </c>
-      <c r="H4">
-        <v>0.19</v>
-      </c>
-      <c r="I4">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>1.59</v>
-      </c>
-      <c r="C5">
-        <v>6.41</v>
-      </c>
-      <c r="D5">
-        <v>-14.77</v>
-      </c>
-      <c r="E5">
-        <v>8.09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-0.27</v>
-      </c>
-      <c r="H5">
-        <v>0.49</v>
-      </c>
-      <c r="I5">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>0.9</v>
-      </c>
-      <c r="C6">
-        <v>6.04</v>
-      </c>
-      <c r="D6">
-        <v>-6.13</v>
-      </c>
-      <c r="E6">
-        <v>-0.08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>-0.18</v>
-      </c>
-      <c r="H6">
-        <v>0.21</v>
-      </c>
-      <c r="I6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>0.31</v>
-      </c>
-      <c r="C7">
-        <v>4.44</v>
-      </c>
-      <c r="D7">
-        <v>-3.05</v>
-      </c>
-      <c r="E7">
-        <v>-1.39</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.01</v>
-      </c>
-      <c r="H7">
-        <v>0.03</v>
-      </c>
-      <c r="I7">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>1.28</v>
-      </c>
-      <c r="C8">
-        <v>7.5</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>-6.96</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.55</v>
-      </c>
-      <c r="H8">
-        <v>0.04</v>
-      </c>
-      <c r="I8">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>3.76</v>
-      </c>
-      <c r="C9">
-        <v>6.74</v>
-      </c>
-      <c r="D9">
-        <v>-5.69</v>
-      </c>
-      <c r="E9">
-        <v>0.49</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1.54</v>
-      </c>
-      <c r="H9">
-        <v>0.59</v>
-      </c>
-      <c r="I9">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>3.78</v>
-      </c>
-      <c r="C10">
-        <v>26.4</v>
-      </c>
-      <c r="D10">
-        <v>-22.73</v>
-      </c>
-      <c r="E10">
-        <v>2.43</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>6.11</v>
-      </c>
-      <c r="H10">
-        <v>2.13</v>
-      </c>
-      <c r="I10">
-        <v>8.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>4.04</v>
-      </c>
-      <c r="C11">
-        <v>-5.85</v>
-      </c>
-      <c r="D11">
-        <v>0.67</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>-5.18</v>
-      </c>
-      <c r="H11">
-        <v>8.24</v>
-      </c>
-      <c r="I11">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>6.31</v>
-      </c>
-      <c r="C12">
-        <v>0.71</v>
-      </c>
-      <c r="D12">
-        <v>1.5</v>
-      </c>
-      <c r="E12">
-        <v>0.4</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>2.61</v>
-      </c>
-      <c r="H12">
-        <v>3.06</v>
-      </c>
-      <c r="I12">
-        <v>5.67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>12.38</v>
-      </c>
-      <c r="C13">
-        <v>0.52</v>
-      </c>
-      <c r="D13">
-        <v>-8.01</v>
-      </c>
-      <c r="E13">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>2.4</v>
-      </c>
-      <c r="H13">
-        <v>5.67</v>
-      </c>
-      <c r="I13">
-        <v>8.07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>14.84</v>
-      </c>
-      <c r="C14">
-        <v>-2.76</v>
-      </c>
-      <c r="D14">
-        <v>-14.28</v>
-      </c>
-      <c r="E14">
-        <v>11.23</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>-5.81</v>
-      </c>
-      <c r="H14">
-        <v>8.07</v>
-      </c>
-      <c r="I14">
-        <v>2.26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>11.38</v>
-      </c>
-      <c r="C15">
-        <v>-15.52</v>
-      </c>
-      <c r="D15">
-        <v>-3.96</v>
-      </c>
-      <c r="E15">
-        <v>20.4</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.92</v>
-      </c>
-      <c r="H15">
-        <v>2.26</v>
-      </c>
-      <c r="I15">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>7.14</v>
-      </c>
-      <c r="C16">
-        <v>0.85</v>
-      </c>
-      <c r="D16">
-        <v>-3.4</v>
-      </c>
-      <c r="E16">
-        <v>2.49</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>-0.05</v>
-      </c>
-      <c r="H16">
-        <v>2.41</v>
-      </c>
-      <c r="I16">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>7.96</v>
-      </c>
-      <c r="C17">
-        <v>3.92</v>
-      </c>
-      <c r="D17">
-        <v>-0.89</v>
-      </c>
-      <c r="E17">
-        <v>-2.56</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0.47</v>
-      </c>
-      <c r="H17">
-        <v>2.36</v>
-      </c>
-      <c r="I17">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>9.58</v>
-      </c>
-      <c r="C18">
-        <v>2.58</v>
-      </c>
-      <c r="D18">
-        <v>-0.55</v>
-      </c>
-      <c r="E18">
-        <v>-1.94</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0.09</v>
-      </c>
-      <c r="H18">
-        <v>2.83</v>
-      </c>
-      <c r="I18">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>9.25</v>
-      </c>
-      <c r="C19">
-        <v>2.05</v>
-      </c>
-      <c r="D19">
-        <v>0.42</v>
-      </c>
-      <c r="E19">
-        <v>-2.43</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0.03</v>
-      </c>
-      <c r="H19">
-        <v>2.92</v>
-      </c>
-      <c r="I19">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="D20">
+        <v>15.72</v>
+      </c>
+      <c r="E20">
+        <v>-10.84</v>
+      </c>
+      <c r="F20">
+        <v>-4.13</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.76</v>
+      </c>
+      <c r="I20">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C20">
-        <v>15.72</v>
-      </c>
-      <c r="D20">
-        <v>-10.84</v>
-      </c>
-      <c r="E20">
-        <v>-4.13</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0.76</v>
-      </c>
-      <c r="H20">
-        <v>2.95</v>
-      </c>
-      <c r="I20">
+      <c r="J20">
         <v>3.71</v>
       </c>
     </row>
@@ -2167,86 +2251,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>63</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>5.11</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
       </c>
       <c r="C2">
         <v>5.11</v>
@@ -2255,46 +2342,46 @@
         <v>5.11</v>
       </c>
       <c r="E2">
+        <v>5.11</v>
+      </c>
+      <c r="F2">
         <v>0.23</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5.34</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.17</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.54</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.1</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.58</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.55</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4.22</v>
-      </c>
-      <c r="M2">
-        <v>1.11</v>
       </c>
       <c r="N2">
         <v>1.11</v>
       </c>
       <c r="O2">
+        <v>1.11</v>
+      </c>
+      <c r="P2">
         <v>0.09</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.37</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.47</v>
-      </c>
-      <c r="R2">
-        <v>0.65</v>
       </c>
       <c r="S2">
         <v>0.65</v>
@@ -2303,18 +2390,21 @@
         <v>0.65</v>
       </c>
       <c r="U2">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="V2">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>7.01</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
       <c r="C3">
         <v>7.01</v>
@@ -2323,46 +2413,46 @@
         <v>7.01</v>
       </c>
       <c r="E3">
+        <v>7.01</v>
+      </c>
+      <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>7.1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.54</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.61</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.21</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2.09</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.67</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5.39</v>
-      </c>
-      <c r="M3">
-        <v>1.71</v>
       </c>
       <c r="N3">
         <v>1.71</v>
       </c>
       <c r="O3">
+        <v>1.71</v>
+      </c>
+      <c r="P3">
         <v>0.19</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.41</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.63</v>
-      </c>
-      <c r="R3">
-        <v>1.07</v>
       </c>
       <c r="S3">
         <v>1.07</v>
@@ -2371,18 +2461,21 @@
         <v>1.07</v>
       </c>
       <c r="U3">
-        <v>1.37</v>
+        <v>1.07</v>
       </c>
       <c r="V3">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>10.59</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
       </c>
       <c r="C4">
         <v>10.59</v>
@@ -2391,46 +2484,46 @@
         <v>10.59</v>
       </c>
       <c r="E4">
+        <v>10.59</v>
+      </c>
+      <c r="F4">
         <v>0.01</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10.6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4.08</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.19</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.29</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3.27</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.4</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.51</v>
-      </c>
-      <c r="M4">
-        <v>2.08</v>
       </c>
       <c r="N4">
         <v>2.08</v>
       </c>
       <c r="O4">
+        <v>2.08</v>
+      </c>
+      <c r="P4">
         <v>0.24</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.58</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.82</v>
-      </c>
-      <c r="R4">
-        <v>1.26</v>
       </c>
       <c r="S4">
         <v>1.26</v>
@@ -2439,18 +2532,21 @@
         <v>1.26</v>
       </c>
       <c r="U4">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="V4">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>13.35</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
       </c>
       <c r="C5">
         <v>13.35</v>
@@ -2459,46 +2555,46 @@
         <v>13.35</v>
       </c>
       <c r="E5">
+        <v>13.35</v>
+      </c>
+      <c r="F5">
         <v>0.02</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>13.37</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>6.17</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.37</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.59</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4.67</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.53</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>12.52</v>
-      </c>
-      <c r="M5">
-        <v>0.85</v>
       </c>
       <c r="N5">
         <v>0.85</v>
       </c>
       <c r="O5">
+        <v>0.85</v>
+      </c>
+      <c r="P5">
         <v>0.09</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.52</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.62</v>
-      </c>
-      <c r="R5">
-        <v>0.23</v>
       </c>
       <c r="S5">
         <v>0.23</v>
@@ -2507,18 +2603,21 @@
         <v>0.23</v>
       </c>
       <c r="U5">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="V5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>16.54</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
       </c>
       <c r="C6">
         <v>16.54</v>
@@ -2527,46 +2626,46 @@
         <v>16.54</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>16.54</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>16.54</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7.92</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.24</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.82</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6.86</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.59</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>16.46</v>
-      </c>
-      <c r="M6">
-        <v>0.08</v>
       </c>
       <c r="N6">
         <v>0.08</v>
       </c>
       <c r="O6">
+        <v>0.08</v>
+      </c>
+      <c r="P6">
         <v>0.01</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0.01</v>
-      </c>
-      <c r="R6">
-        <v>0.07000000000000001</v>
       </c>
       <c r="S6">
         <v>0.07000000000000001</v>
@@ -2580,13 +2679,16 @@
       <c r="V6">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>17.25</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
       </c>
       <c r="C7">
         <v>17.25</v>
@@ -2595,46 +2697,46 @@
         <v>17.25</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>17.25</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>9.49</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.39</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.05</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>6.57</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.48</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>16.99</v>
-      </c>
-      <c r="M7">
-        <v>0.25</v>
       </c>
       <c r="N7">
         <v>0.25</v>
       </c>
       <c r="O7">
+        <v>0.25</v>
+      </c>
+      <c r="P7">
         <v>0.05</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>0.05</v>
-      </c>
-      <c r="R7">
-        <v>0.21</v>
       </c>
       <c r="S7">
         <v>0.21</v>
@@ -2643,18 +2745,21 @@
         <v>0.21</v>
       </c>
       <c r="U7">
-        <v>0.92</v>
+        <v>0.21</v>
       </c>
       <c r="V7">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>25.08</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
       </c>
       <c r="C8">
         <v>25.08</v>
@@ -2663,66 +2768,69 @@
         <v>25.08</v>
       </c>
       <c r="E8">
+        <v>25.08</v>
+      </c>
+      <c r="F8">
         <v>0.01</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>25.09</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>15.16</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.53</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.22</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5.97</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.96</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>23.84</v>
-      </c>
-      <c r="M8">
-        <v>1.25</v>
       </c>
       <c r="N8">
         <v>1.25</v>
       </c>
       <c r="O8">
+        <v>1.25</v>
+      </c>
+      <c r="P8">
         <v>0.2</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>0.2</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1.06</v>
-      </c>
-      <c r="S8">
-        <v>0.86</v>
       </c>
       <c r="T8">
         <v>0.86</v>
       </c>
       <c r="U8">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="V8">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>50.51</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
       </c>
       <c r="C9">
         <v>50.51</v>
@@ -2731,46 +2839,46 @@
         <v>50.51</v>
       </c>
       <c r="E9">
+        <v>50.51</v>
+      </c>
+      <c r="F9">
         <v>0.12</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>50.63</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>31.82</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.05</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4.75</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>8.050000000000001</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>46.87</v>
-      </c>
-      <c r="M9">
-        <v>3.76</v>
       </c>
       <c r="N9">
         <v>3.76</v>
       </c>
       <c r="O9">
+        <v>3.76</v>
+      </c>
+      <c r="P9">
         <v>0.86</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-0.77</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.09</v>
-      </c>
-      <c r="R9">
-        <v>3.67</v>
       </c>
       <c r="S9">
         <v>3.67</v>
@@ -2779,18 +2887,21 @@
         <v>3.67</v>
       </c>
       <c r="U9">
-        <v>3.92</v>
+        <v>3.67</v>
       </c>
       <c r="V9">
         <v>3.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>62.45</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
       </c>
       <c r="C10">
         <v>62.45</v>
@@ -2799,46 +2910,46 @@
         <v>62.45</v>
       </c>
       <c r="E10">
+        <v>62.45</v>
+      </c>
+      <c r="F10">
         <v>0.54</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>62.99</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>45.45</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6.25</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.11</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6.66</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.74</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>59.21</v>
-      </c>
-      <c r="M10">
-        <v>3.78</v>
       </c>
       <c r="N10">
         <v>3.78</v>
       </c>
       <c r="O10">
+        <v>3.78</v>
+      </c>
+      <c r="P10">
         <v>0.76</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.55</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1.31</v>
-      </c>
-      <c r="R10">
-        <v>2.47</v>
       </c>
       <c r="S10">
         <v>2.47</v>
@@ -2847,18 +2958,21 @@
         <v>2.47</v>
       </c>
       <c r="U10">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="V10">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>66.38</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
       </c>
       <c r="C11">
         <v>66.38</v>
@@ -2867,46 +2981,46 @@
         <v>66.38</v>
       </c>
       <c r="E11">
+        <v>66.38</v>
+      </c>
+      <c r="F11">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>67.06999999999999</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>52.3</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.01</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>8.470000000000001</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.25</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>63.03</v>
-      </c>
-      <c r="M11">
-        <v>4.04</v>
       </c>
       <c r="N11">
         <v>4.04</v>
       </c>
       <c r="O11">
+        <v>4.04</v>
+      </c>
+      <c r="P11">
         <v>0.8100000000000001</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.33</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1.14</v>
-      </c>
-      <c r="R11">
-        <v>2.9</v>
       </c>
       <c r="S11">
         <v>2.9</v>
@@ -2915,18 +3029,21 @@
         <v>2.9</v>
       </c>
       <c r="U11">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="V11">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>81.83</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
       </c>
       <c r="C12">
         <v>81.83</v>
@@ -2935,46 +3052,46 @@
         <v>81.83</v>
       </c>
       <c r="E12">
+        <v>81.83</v>
+      </c>
+      <c r="F12">
         <v>1.75</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>83.58</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>64.48999999999999</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4.33</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>7.3</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.16</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>77.27</v>
-      </c>
-      <c r="M12">
-        <v>6.31</v>
       </c>
       <c r="N12">
         <v>6.31</v>
       </c>
       <c r="O12">
+        <v>6.31</v>
+      </c>
+      <c r="P12">
         <v>2.43</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-1.49</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.93</v>
-      </c>
-      <c r="R12">
-        <v>5.38</v>
       </c>
       <c r="S12">
         <v>5.38</v>
@@ -2983,18 +3100,21 @@
         <v>5.38</v>
       </c>
       <c r="U12">
-        <v>3.81</v>
+        <v>5.38</v>
       </c>
       <c r="V12">
         <v>3.81</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>92.95</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
       </c>
       <c r="C13">
         <v>92.95</v>
@@ -3003,46 +3123,46 @@
         <v>92.95</v>
       </c>
       <c r="E13">
+        <v>92.95</v>
+      </c>
+      <c r="F13">
         <v>1.15</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>94.09999999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>74.05</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3.44</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.01</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2.49</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.73</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>81.72</v>
-      </c>
-      <c r="M13">
-        <v>12.38</v>
       </c>
       <c r="N13">
         <v>12.38</v>
       </c>
       <c r="O13">
+        <v>12.38</v>
+      </c>
+      <c r="P13">
         <v>3.76</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-0.43</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>3.33</v>
-      </c>
-      <c r="R13">
-        <v>9.039999999999999</v>
       </c>
       <c r="S13">
         <v>9.039999999999999</v>
@@ -3051,18 +3171,21 @@
         <v>9.039999999999999</v>
       </c>
       <c r="U13">
-        <v>6.35</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="V13">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>74.52</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
       </c>
       <c r="C14">
         <v>74.52</v>
@@ -3071,46 +3194,46 @@
         <v>74.52</v>
       </c>
       <c r="E14">
+        <v>74.52</v>
+      </c>
+      <c r="F14">
         <v>0.4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>74.93000000000001</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>52.34</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.07</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.05</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2.72</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.92</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>60.09</v>
-      </c>
-      <c r="M14">
-        <v>14.84</v>
       </c>
       <c r="N14">
         <v>14.84</v>
       </c>
       <c r="O14">
+        <v>14.84</v>
+      </c>
+      <c r="P14">
         <v>3.08</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1.28</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4.36</v>
-      </c>
-      <c r="R14">
-        <v>10.48</v>
       </c>
       <c r="S14">
         <v>10.48</v>
@@ -3119,18 +3242,21 @@
         <v>10.48</v>
       </c>
       <c r="U14">
+        <v>10.48</v>
+      </c>
+      <c r="V14">
         <v>6.99</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>6.98</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>60.19</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
       </c>
       <c r="C15">
         <v>60.19</v>
@@ -3139,46 +3265,46 @@
         <v>60.19</v>
       </c>
       <c r="E15">
+        <v>60.19</v>
+      </c>
+      <c r="F15">
         <v>0.9</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>61.08</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>41.44</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3.45</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.05</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2.75</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2.01</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>49.7</v>
-      </c>
-      <c r="M15">
-        <v>11.38</v>
       </c>
       <c r="N15">
         <v>11.38</v>
       </c>
       <c r="O15">
+        <v>11.38</v>
+      </c>
+      <c r="P15">
         <v>2.26</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.1</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.36</v>
-      </c>
-      <c r="R15">
-        <v>9.02</v>
       </c>
       <c r="S15">
         <v>9.02</v>
@@ -3187,18 +3313,21 @@
         <v>9.02</v>
       </c>
       <c r="U15">
-        <v>3.94</v>
+        <v>9.02</v>
       </c>
       <c r="V15">
         <v>3.94</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>62.33</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16">
         <v>62.33</v>
@@ -3207,46 +3336,46 @@
         <v>62.33</v>
       </c>
       <c r="E16">
+        <v>62.33</v>
+      </c>
+      <c r="F16">
         <v>0.28</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>62.62</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>49.05</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.16</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.15</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.62</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.49</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>55.48</v>
-      </c>
-      <c r="M16">
-        <v>7.14</v>
       </c>
       <c r="N16">
         <v>7.14</v>
       </c>
       <c r="O16">
+        <v>7.14</v>
+      </c>
+      <c r="P16">
         <v>1.64</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.13</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1.77</v>
-      </c>
-      <c r="R16">
-        <v>5.37</v>
       </c>
       <c r="S16">
         <v>5.37</v>
@@ -3255,18 +3384,21 @@
         <v>5.37</v>
       </c>
       <c r="U16">
-        <v>2.34</v>
+        <v>5.37</v>
       </c>
       <c r="V16">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>55.9</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
       </c>
       <c r="C17">
         <v>55.9</v>
@@ -3275,46 +3407,46 @@
         <v>55.9</v>
       </c>
       <c r="E17">
+        <v>55.9</v>
+      </c>
+      <c r="F17">
         <v>0.52</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>56.42</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>42.62</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2.22</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.06</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2.33</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.21</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>48.45</v>
-      </c>
-      <c r="M17">
-        <v>7.96</v>
       </c>
       <c r="N17">
         <v>7.96</v>
       </c>
       <c r="O17">
+        <v>7.96</v>
+      </c>
+      <c r="P17">
         <v>2.12</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-0.06</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2.07</v>
-      </c>
-      <c r="R17">
-        <v>5.89</v>
       </c>
       <c r="S17">
         <v>5.89</v>
@@ -3323,18 +3455,21 @@
         <v>5.89</v>
       </c>
       <c r="U17">
-        <v>2.57</v>
+        <v>5.89</v>
       </c>
       <c r="V17">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>68.78</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
       <c r="C18">
         <v>68.78</v>
@@ -3343,46 +3478,46 @@
         <v>68.78</v>
       </c>
       <c r="E18">
+        <v>68.78</v>
+      </c>
+      <c r="F18">
         <v>0.1</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>68.88</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>52.3</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.69</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.11</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2.09</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2.11</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>59.29</v>
-      </c>
-      <c r="M18">
-        <v>9.58</v>
       </c>
       <c r="N18">
         <v>9.58</v>
       </c>
       <c r="O18">
+        <v>9.58</v>
+      </c>
+      <c r="P18">
         <v>2.57</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-0.14</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2.43</v>
-      </c>
-      <c r="R18">
-        <v>7.15</v>
       </c>
       <c r="S18">
         <v>7.15</v>
@@ -3391,18 +3526,21 @@
         <v>7.15</v>
       </c>
       <c r="U18">
-        <v>3.12</v>
+        <v>7.15</v>
       </c>
       <c r="V18">
         <v>3.12</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>65.43000000000001</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
       </c>
       <c r="C19">
         <v>65.43000000000001</v>
@@ -3411,46 +3549,46 @@
         <v>65.43000000000001</v>
       </c>
       <c r="E19">
+        <v>65.43000000000001</v>
+      </c>
+      <c r="F19">
         <v>0.14</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>65.56999999999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>49.81</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2.8</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.03</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.86</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1.81</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>56.32</v>
-      </c>
-      <c r="M19">
-        <v>9.25</v>
       </c>
       <c r="N19">
         <v>9.25</v>
       </c>
       <c r="O19">
+        <v>9.25</v>
+      </c>
+      <c r="P19">
         <v>2.55</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-0.19</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2.36</v>
-      </c>
-      <c r="R19">
-        <v>6.89</v>
       </c>
       <c r="S19">
         <v>6.89</v>
@@ -3459,18 +3597,21 @@
         <v>6.89</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>6.89</v>
       </c>
       <c r="V19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>61.55</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
       </c>
       <c r="C20">
         <v>61.55</v>
@@ -3479,46 +3620,46 @@
         <v>61.55</v>
       </c>
       <c r="E20">
+        <v>61.55</v>
+      </c>
+      <c r="F20">
         <v>0.08</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>61.63</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>42.69</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6.15</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.66</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2.82</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>53.52</v>
-      </c>
-      <c r="M20">
-        <v>8.109999999999999</v>
       </c>
       <c r="N20">
         <v>8.109999999999999</v>
       </c>
       <c r="O20">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="P20">
         <v>2.28</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-0.2</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2.07</v>
-      </c>
-      <c r="R20">
-        <v>6.04</v>
       </c>
       <c r="S20">
         <v>6.04</v>
@@ -3527,9 +3668,12 @@
         <v>6.04</v>
       </c>
       <c r="U20">
+        <v>6.04</v>
+      </c>
+      <c r="V20">
         <v>2.63</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>2.63</v>
       </c>
     </row>
@@ -3548,84 +3692,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>6.18</v>
@@ -3690,13 +3834,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>23.79</v>
@@ -3761,13 +3905,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>27.91</v>
@@ -3832,13 +3976,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>5.61</v>
@@ -3903,13 +4047,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>3.65</v>
@@ -3974,13 +4118,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>26.47</v>
@@ -4045,13 +4189,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>31.34</v>
@@ -4116,13 +4260,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>8.789999999999999</v>
@@ -4187,13 +4331,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>26.6</v>
@@ -4258,13 +4402,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>30.68</v>
@@ -4329,13 +4473,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>17.51</v>
@@ -4400,13 +4544,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>10.62</v>
@@ -4471,13 +4615,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>14.08</v>
@@ -4542,13 +4686,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <v>28.13</v>
@@ -4613,13 +4757,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <v>41.23</v>
@@ -4684,13 +4828,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>14.91</v>
@@ -4755,13 +4899,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
         <v>88</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
       </c>
       <c r="D18">
         <v>11.08</v>
@@ -4826,13 +4970,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D19">
         <v>25.66</v>
@@ -4897,13 +5041,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>22.87</v>
@@ -4968,13 +5112,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -5039,13 +5183,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>10.22</v>
@@ -5110,13 +5254,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
         <v>89</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" t="s">
-        <v>101</v>
       </c>
       <c r="D23">
         <v>11.06</v>
@@ -5181,13 +5325,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
         <v>90</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
       </c>
       <c r="D24">
         <v>28.91</v>
@@ -5252,13 +5396,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D25">
         <v>11.79</v>
@@ -5323,13 +5467,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D26">
         <v>15.93</v>
@@ -5394,13 +5538,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D27">
         <v>15.63</v>
@@ -5465,13 +5609,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D28">
         <v>19</v>
@@ -5536,13 +5680,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
         <v>91</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>103</v>
       </c>
       <c r="D29">
         <v>11.23</v>
@@ -5607,13 +5751,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D30">
         <v>12.46</v>
@@ -5678,13 +5822,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D31">
         <v>15.33</v>
@@ -5749,13 +5893,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D32">
         <v>16.87</v>
@@ -5820,13 +5964,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D33">
         <v>17.03</v>
@@ -5891,13 +6035,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D34">
         <v>17.07</v>
@@ -5962,13 +6106,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D35">
         <v>17.02</v>
@@ -6033,13 +6177,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>17.65</v>
@@ -6104,13 +6248,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D37">
         <v>17.84</v>
@@ -6175,13 +6319,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>18.86</v>
@@ -6246,13 +6390,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D39">
         <v>14.61</v>
@@ -6317,13 +6461,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D40">
         <v>14.12</v>
@@ -6388,13 +6532,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D41">
         <v>14.72</v>
@@ -6459,13 +6603,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <v>15.14</v>
@@ -6530,13 +6674,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D43">
         <v>14.83</v>
@@ -6601,13 +6745,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>16.85</v>
@@ -6672,13 +6816,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <v>17.02</v>
@@ -6743,13 +6887,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D46">
         <v>18.75</v>
@@ -6819,500 +6963,524 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
         <v>6.51</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3.56</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.54</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.42</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.82</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>54.63</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>23.68</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>21.79</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>12.66</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4.59</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3.19</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
         <v>8.92</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5.1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.44</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.17</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.37</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>57.12</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>27.32</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>24.36</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>15.33</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>7.13</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4.44</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.11</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
         <v>11.32</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6.03</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2.54</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.23</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.34</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>53.27</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>22.39</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>19.65</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>11.87</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>6.02</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3.51</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.31</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
         <v>14.27</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6.54</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.54</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.91</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.25</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>45.85</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>10.82</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6.38</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.73</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.1</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.53</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.71</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>100</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>22.48</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3.67</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
         <v>17.69</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>8.300000000000001</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.96</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.08</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>46.93</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5.44</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.47</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.31</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.15</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.79</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>100</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>36.17</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4.66</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
         <v>18.44</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7.35</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.33</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.27</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.22</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>39.86</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.77</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.47</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.97</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.5</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.39</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>100</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>15.16</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2.21</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
         <v>26.83</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7.96</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.58</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.34</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.92</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>29.66</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5.88</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4.99</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3.43</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3.88</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2.02</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.05</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>100</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>6.31</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
         <v>54.02</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>9.32</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4.24</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4.02</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3.92</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>17.24</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7.84</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7.44</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>7.26</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>14.21</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5.98</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
@@ -7320,55 +7488,58 @@
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>100</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>5.11</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.59</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
         <v>66.79000000000001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>11.29</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4.16</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>4.04</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.65</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>16.89</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6.22</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>6.05</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3.96</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8.75</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2.68</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>0</v>
       </c>
@@ -7376,55 +7547,58 @@
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>100</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-0.38</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
         <v>48.7</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>9.18</v>
-      </c>
-      <c r="D11">
-        <v>2.97</v>
       </c>
       <c r="E11">
         <v>2.97</v>
       </c>
       <c r="F11">
+        <v>2.97</v>
+      </c>
+      <c r="G11">
         <v>2.13</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>18.85</v>
-      </c>
-      <c r="H11">
-        <v>6.08</v>
       </c>
       <c r="I11">
         <v>6.08</v>
       </c>
       <c r="J11">
+        <v>6.08</v>
+      </c>
+      <c r="K11">
         <v>4.36</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>8.84</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2.95</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
         <v>0</v>
       </c>
@@ -7432,55 +7606,58 @@
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>100</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>11.43</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.91</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
         <v>57.91</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>9.630000000000001</v>
-      </c>
-      <c r="D12">
-        <v>4.47</v>
       </c>
       <c r="E12">
         <v>4.47</v>
       </c>
       <c r="F12">
+        <v>4.47</v>
+      </c>
+      <c r="G12">
         <v>3.81</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>16.63</v>
-      </c>
-      <c r="H12">
-        <v>7.71</v>
       </c>
       <c r="I12">
         <v>7.71</v>
       </c>
       <c r="J12">
+        <v>7.71</v>
+      </c>
+      <c r="K12">
         <v>6.57</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>13.9</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>6.95</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
         <v>0</v>
       </c>
@@ -7491,52 +7668,55 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>41.17</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3.02</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
         <v>65.22</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>10.44</v>
-      </c>
-      <c r="D13">
-        <v>8.69</v>
       </c>
       <c r="E13">
         <v>8.69</v>
       </c>
       <c r="F13">
+        <v>8.69</v>
+      </c>
+      <c r="G13">
         <v>6.35</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>16</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>13.33</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>13.31</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>9.73</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>15.7</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>9.93</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
         <v>0</v>
       </c>
@@ -7547,223 +7727,235 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>107.33</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>7.21</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
         <v>46.77</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>11.04</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>9.34</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>9.31</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6.58</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>23.61</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>19.97</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>19.91</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>14.06</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>14.37</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>9.68</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>14.81</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>11.76</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>85.19</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>76.12</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>4.32</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
         <v>26.25</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>6.19</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4.99</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4.97</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3.94</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>23.56</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>18.99</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>18.91</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>14.99</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>9.039999999999999</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>7.67</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>25.4</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>19.47</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>74.59999999999999</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>64.34</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>4.54</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
         <v>27.19</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4.32</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3.18</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3.11</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.34</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>15.89</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>11.68</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>11.45</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>8.609999999999999</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>5.22</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>4.53</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.05</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>42.68</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>28.67</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>57.32</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>39.03</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3.94</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
         <v>24.38</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>4.52</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>3.5</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3.47</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2.57</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>18.52</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>14.35</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>14.24</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>10.54</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5.5</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>4.91</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.04</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
         <v>0</v>
       </c>
@@ -7771,55 +7963,58 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>64.2</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>6.2</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
         <v>30</v>
       </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
       <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
         <v>5.14</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>4.23</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4.18</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3.12</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>17.12</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>14.09</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>13.93</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>10.4</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>6.38</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>5.66</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.04</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
       <c r="O18">
         <v>0</v>
       </c>
@@ -7827,121 +8022,130 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>134.46</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>11.41</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
         <v>28.54</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>4.86</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4.05</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4.03</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>17.03</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>14.18</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>14.13</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>10.52</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5.86</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>5.09</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.03</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>19.96</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>15.72</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>80.04000000000001</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>87.02</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>7.81</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
         <v>26.85</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4.35</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>3.62</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>3.54</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.63</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>16.2</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>13.5</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>13.17</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>9.81</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>4.95</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>4.13</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.01</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>22.77</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>17.86</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>77.23</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>105.91</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>10.62</v>
       </c>
     </row>
